--- a/Reviews_Ans.xlsx
+++ b/Reviews_Ans.xlsx
@@ -8,15 +8,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$24</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -27,6 +32,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
       <scheme val="minor"/>
@@ -52,9 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +348,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -360,6 +375,16 @@
           <t>Score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FoodItem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="n">
@@ -373,6 +398,15 @@
       <c r="C2" t="n">
         <v>-0.2755</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E2">
+        <f>IF(ISBLANK(E2), "Timestamp Not Found","1/1/2000")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="n">
@@ -386,6 +420,15 @@
       <c r="C3" t="n">
         <v>-0.2755</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E3">
+        <f>IF(ISBLANK(E3), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="n">
@@ -399,6 +442,15 @@
       <c r="C4" t="n">
         <v>0.5994</v>
       </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E4">
+        <f>IF(ISBLANK(E4), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="n">
@@ -412,6 +464,15 @@
       <c r="C5" t="n">
         <v>-0.2755</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E5">
+        <f>IF(ISBLANK(E5), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="n">
@@ -425,6 +486,15 @@
       <c r="C6" t="n">
         <v>0.6369</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E6">
+        <f>IF(ISBLANK(E6), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="n">
@@ -438,6 +508,15 @@
       <c r="C7" t="n">
         <v>0.5719</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E7">
+        <f>IF(ISBLANK(E7), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="n">
@@ -451,6 +530,15 @@
       <c r="C8" t="n">
         <v>-0.4588</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E8">
+        <f>IF(ISBLANK(E8), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" ht="12.5" customHeight="1">
       <c r="A9" t="n">
@@ -463,6 +551,15 @@
       </c>
       <c r="C9" t="n">
         <v>0.296</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E9">
+        <f>IF(ISBLANK(E9), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="12.5" customHeight="1">
@@ -477,8 +574,17 @@
       <c r="C10" t="n">
         <v>-0.5719</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E10">
+        <f>IF(ISBLANK(E10), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="12.5" customHeight="1">
       <c r="A11" t="n">
         <v>1948310077</v>
       </c>
@@ -490,8 +596,17 @@
       <c r="C11" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E11">
+        <f>IF(ISBLANK(E11), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="12.5" customHeight="1">
       <c r="A12" t="n">
         <v>901563066</v>
       </c>
@@ -503,8 +618,17 @@
       <c r="C12" t="n">
         <v>-0.5719</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E12">
+        <f>IF(ISBLANK(E12), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="12.5" customHeight="1">
       <c r="A13" t="n">
         <v>901563066</v>
       </c>
@@ -516,8 +640,17 @@
       <c r="C13" t="n">
         <v>-0.2263</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E13">
+        <f>IF(ISBLANK(E13), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="12.5" customHeight="1">
       <c r="A14" t="n">
         <v>901563066</v>
       </c>
@@ -529,8 +662,17 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E14">
+        <f>IF(ISBLANK(E14), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="12.5" customHeight="1">
       <c r="A15" t="n">
         <v>901563066</v>
       </c>
@@ -542,8 +684,17 @@
       <c r="C15" t="n">
         <v>0.6249</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E15">
+        <f>IF(ISBLANK(E15), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="12.5" customHeight="1">
       <c r="A16" t="n">
         <v>814688088</v>
       </c>
@@ -555,8 +706,17 @@
       <c r="C16" t="n">
         <v>0.7351</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E16">
+        <f>IF(ISBLANK(E16), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="12.5" customHeight="1">
       <c r="A17" t="n">
         <v>1948310077</v>
       </c>
@@ -568,8 +728,17 @@
       <c r="C17" t="n">
         <v>0.7717000000000001</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E17">
+        <f>IF(ISBLANK(E17), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="12.5" customHeight="1">
       <c r="A18" t="n">
         <v>901563066</v>
       </c>
@@ -581,8 +750,17 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E18">
+        <f>IF(ISBLANK(E18), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="12.5" customHeight="1">
       <c r="A19" t="n">
         <v>901563066</v>
       </c>
@@ -594,8 +772,17 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E19">
+        <f>IF(ISBLANK(E19), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="12.5" customHeight="1">
       <c r="A20" t="n">
         <v>901563066</v>
       </c>
@@ -607,8 +794,17 @@
       <c r="C20" t="n">
         <v>0.6249</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E20">
+        <f>IF(ISBLANK(E20), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="12.5" customHeight="1">
       <c r="A21" t="n">
         <v>901563066</v>
       </c>
@@ -620,8 +816,17 @@
       <c r="C21" t="n">
         <v>-0.464</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E21">
+        <f>IF(ISBLANK(E21), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="12.5" customHeight="1">
       <c r="A22" t="n">
         <v>1948310077</v>
       </c>
@@ -633,8 +838,419 @@
       <c r="C22" t="n">
         <v>-0.5849</v>
       </c>
-    </row>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E22">
+        <f>IF(ISBLANK(E22), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="12.5" customHeight="1">
+      <c r="A23" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The pizza  was delicious</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E23">
+        <f>IF(ISBLANK(E23), "Timestamp Not Found",1/1/2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="12.5" customHeight="1">
+      <c r="A24" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The pizza  was not good at all</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3412</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pizza</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45066.02952546296</v>
+      </c>
+    </row>
+    <row r="25" ht="12.5" customHeight="1">
+      <c r="A25" t="n">
+        <v>814688088</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45066.0425925926</v>
+      </c>
+    </row>
+    <row r="26" ht="12.5" customHeight="1">
+      <c r="A26" t="n">
+        <v>814688088</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Thanks for the great experience I loved the food</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45066.0427199074</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>The biryani was the best</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45066.09127314815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Palak paneer was  so good</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45066.09168981481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The Palak Paneer was so good</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45066.09356481482</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>The Palak Paneer was so good</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>45066.09490740741</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Loved the lassi</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5994</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>45066.09666666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Loved the lassi</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5994</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>45066.09741898148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Loved the Lassi</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5994</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>45066.09761574074</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Loved the Lassi</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5994</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>lassi</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>45066.1003587963</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Thr biryani was the best  thing</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>45066.10112268518</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Thr biryani was the best  thing</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>45066.10302083333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Thr biryani was the best  thing</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>45066.10524305556</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pasta was the best thing ever</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>pasta</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>45066.10626157407</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>I did not like the pasta</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.2755</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>45066.10652777777</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>I did not like the Pasta</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.2755</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>pasta</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>45066.10699074074</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Biryani was so good</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>45066.10766203704</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
+  <autoFilter ref="A1:E24"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
